--- a/2021 빅콘테스트_데이터분석분야_퓨처스리그_홍수ZERO_평가데이터_210803.xlsx
+++ b/2021 빅콘테스트_데이터분석분야_퓨처스리그_홍수ZERO_평가데이터_210803.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\01_작업자료\00_주요사업\2021년_빅데이터 환경 조성 지원\사업운영\02_빅콘테스트\대회 데이터\문제 데이터\05__데이터분석분야_퓨처스리그_홍수ZERO\02_평가데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\Github\BigContest_Flood-ZERO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BD450D-1C85-453D-85D4-4396182ECEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{733BA379-B0EA-4C38-94E6-BD5C4148CF07}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="평가데이터" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">평가데이터!$A$1:$F$162</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,9 +56,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="185" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -186,9 +185,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -196,6 +192,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -513,11 +512,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F41443F-B651-4C2E-A9E6-180F181BFED4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -531,32 +530,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
@@ -574,7 +573,9 @@
       <c r="E3" s="1">
         <v>6</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="7">
+        <v>151.39989460000001</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
@@ -592,7 +593,9 @@
       <c r="E4" s="1">
         <v>7</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="7">
+        <v>184.9793627</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
@@ -610,7 +613,9 @@
       <c r="E5" s="1">
         <v>8</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="7">
+        <v>269.04465750000003</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
@@ -628,7 +633,9 @@
       <c r="E6" s="1">
         <v>9</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="7">
+        <v>466.77708730000001</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
@@ -646,7 +653,9 @@
       <c r="E7" s="1">
         <v>10</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="7">
+        <v>553.60340169999995</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
@@ -664,7 +673,9 @@
       <c r="E8" s="1">
         <v>11</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="7">
+        <v>711.99392250000005</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
@@ -682,7 +693,9 @@
       <c r="E9" s="1">
         <v>12</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="7">
+        <v>732.63996650000001</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
@@ -700,7 +713,9 @@
       <c r="E10" s="1">
         <v>13</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="7">
+        <v>729.04729380000003</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
@@ -718,7 +733,9 @@
       <c r="E11" s="1">
         <v>14</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="7">
+        <v>719.53820889999997</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
@@ -736,7 +753,9 @@
       <c r="E12" s="1">
         <v>15</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="7">
+        <v>792.53471339999999</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
@@ -754,7 +773,9 @@
       <c r="E13" s="1">
         <v>16</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="7">
+        <v>670.30034509999996</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
@@ -772,7 +793,9 @@
       <c r="E14" s="1">
         <v>17</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="7">
+        <v>632.51800189999994</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
@@ -790,7 +813,9 @@
       <c r="E15" s="1">
         <v>18</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="7">
+        <v>628.53325989999996</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
@@ -808,7 +833,9 @@
       <c r="E16" s="1">
         <v>19</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="7">
+        <v>823.6891114</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
@@ -826,7 +853,9 @@
       <c r="E17" s="1">
         <v>20</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="7">
+        <v>973.26843099999996</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
@@ -844,7 +873,9 @@
       <c r="E18" s="1">
         <v>21</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="7">
+        <v>1064.385057</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
@@ -862,7 +893,9 @@
       <c r="E19" s="1">
         <v>22</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="7">
+        <v>1113.883384</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
@@ -880,7 +913,9 @@
       <c r="E20" s="1">
         <v>23</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="7">
+        <v>1197.8561179999999</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
@@ -898,7 +933,9 @@
       <c r="E21" s="1">
         <v>24</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="7">
+        <v>1492.6818020000001</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
@@ -916,7 +953,9 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="7">
+        <v>1598.9011800000001</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
@@ -934,7 +973,9 @@
       <c r="E23" s="1">
         <v>2</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="7">
+        <v>1654.19697</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
@@ -952,7 +993,9 @@
       <c r="E24" s="1">
         <v>3</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="7">
+        <v>2486.4006359999998</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
@@ -970,7 +1013,9 @@
       <c r="E25" s="1">
         <v>4</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="7">
+        <v>2922.1860150000002</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
@@ -988,7 +1033,9 @@
       <c r="E26" s="1">
         <v>5</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="7">
+        <v>3205.7986639999999</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
@@ -1006,7 +1053,9 @@
       <c r="E27" s="1">
         <v>6</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="7">
+        <v>3346.9847679999998</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
@@ -1024,7 +1073,9 @@
       <c r="E28" s="1">
         <v>7</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="7">
+        <v>3904.6189810000001</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
@@ -1042,7 +1093,9 @@
       <c r="E29" s="1">
         <v>8</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="7">
+        <v>4580.3488139999999</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
@@ -1060,7 +1113,9 @@
       <c r="E30" s="1">
         <v>9</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="7">
+        <v>4937.2142320000003</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
@@ -1078,7 +1133,9 @@
       <c r="E31" s="1">
         <v>10</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="7">
+        <v>5018.8102879999997</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
@@ -1096,7 +1153,9 @@
       <c r="E32" s="1">
         <v>11</v>
       </c>
-      <c r="F32" s="4"/>
+      <c r="F32" s="7">
+        <v>5142.6607880000001</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
@@ -1114,7 +1173,9 @@
       <c r="E33" s="1">
         <v>12</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="7">
+        <v>5123.2948130000004</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
@@ -1132,7 +1193,9 @@
       <c r="E34" s="1">
         <v>13</v>
       </c>
-      <c r="F34" s="4"/>
+      <c r="F34" s="7">
+        <v>5384.419234</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
@@ -1150,7 +1213,9 @@
       <c r="E35" s="1">
         <v>14</v>
       </c>
-      <c r="F35" s="4"/>
+      <c r="F35" s="7">
+        <v>5811.1447200000002</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
@@ -1168,7 +1233,9 @@
       <c r="E36" s="1">
         <v>15</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="7">
+        <v>5808.7600730000004</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
@@ -1186,7 +1253,9 @@
       <c r="E37" s="1">
         <v>16</v>
       </c>
-      <c r="F37" s="4"/>
+      <c r="F37" s="7">
+        <v>5815.5423300000002</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
@@ -1204,7 +1273,9 @@
       <c r="E38" s="1">
         <v>17</v>
       </c>
-      <c r="F38" s="4"/>
+      <c r="F38" s="7">
+        <v>5701.4708389999996</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
@@ -1222,7 +1293,9 @@
       <c r="E39" s="1">
         <v>18</v>
       </c>
-      <c r="F39" s="4"/>
+      <c r="F39" s="7">
+        <v>5532.7771089999997</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
@@ -1240,7 +1313,9 @@
       <c r="E40" s="1">
         <v>19</v>
       </c>
-      <c r="F40" s="4"/>
+      <c r="F40" s="7">
+        <v>5230.2224059999999</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
@@ -1258,7 +1333,9 @@
       <c r="E41" s="1">
         <v>20</v>
       </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="7">
+        <v>5260.6866900000005</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
@@ -1276,7 +1353,9 @@
       <c r="E42" s="1">
         <v>21</v>
       </c>
-      <c r="F42" s="4"/>
+      <c r="F42" s="7">
+        <v>5048.8634240000001</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
@@ -1294,7 +1373,9 @@
       <c r="E43" s="1">
         <v>22</v>
       </c>
-      <c r="F43" s="4"/>
+      <c r="F43" s="7">
+        <v>5012.317524</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
@@ -1312,7 +1393,9 @@
       <c r="E44" s="1">
         <v>23</v>
       </c>
-      <c r="F44" s="4"/>
+      <c r="F44" s="7">
+        <v>4948.2292820000002</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
@@ -1330,7 +1413,9 @@
       <c r="E45" s="1">
         <v>24</v>
       </c>
-      <c r="F45" s="4"/>
+      <c r="F45" s="7">
+        <v>4983.4667769999996</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
@@ -1348,7 +1433,9 @@
       <c r="E46" s="1">
         <v>1</v>
       </c>
-      <c r="F46" s="4"/>
+      <c r="F46" s="7">
+        <v>4800.7558630000003</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
@@ -1366,7 +1453,9 @@
       <c r="E47" s="1">
         <v>2</v>
       </c>
-      <c r="F47" s="4"/>
+      <c r="F47" s="7">
+        <v>4743.3093289999997</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
@@ -1384,7 +1473,9 @@
       <c r="E48" s="1">
         <v>3</v>
       </c>
-      <c r="F48" s="4"/>
+      <c r="F48" s="7">
+        <v>4683.751002</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
@@ -1402,7 +1493,9 @@
       <c r="E49" s="1">
         <v>4</v>
       </c>
-      <c r="F49" s="4"/>
+      <c r="F49" s="7">
+        <v>4631.9955620000001</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
@@ -1420,7 +1513,9 @@
       <c r="E50" s="1">
         <v>5</v>
       </c>
-      <c r="F50" s="4"/>
+      <c r="F50" s="7">
+        <v>4566.9308190000002</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
@@ -1438,7 +1533,9 @@
       <c r="E51" s="1">
         <v>6</v>
       </c>
-      <c r="F51" s="4"/>
+      <c r="F51" s="7">
+        <v>4414.0677900000001</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
@@ -1456,7 +1553,9 @@
       <c r="E52" s="1">
         <v>7</v>
       </c>
-      <c r="F52" s="4"/>
+      <c r="F52" s="7">
+        <v>4349.8335079999997</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
@@ -1474,7 +1573,9 @@
       <c r="E53" s="1">
         <v>8</v>
       </c>
-      <c r="F53" s="4"/>
+      <c r="F53" s="7">
+        <v>4283.3002889999998</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
@@ -1492,7 +1593,9 @@
       <c r="E54" s="1">
         <v>9</v>
       </c>
-      <c r="F54" s="4"/>
+      <c r="F54" s="7">
+        <v>4171.203861</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
@@ -1510,7 +1613,9 @@
       <c r="E55" s="1">
         <v>10</v>
       </c>
-      <c r="F55" s="4"/>
+      <c r="F55" s="7">
+        <v>4311.2872379999999</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
@@ -1528,7 +1633,9 @@
       <c r="E56" s="1">
         <v>11</v>
       </c>
-      <c r="F56" s="4"/>
+      <c r="F56" s="7">
+        <v>3811.1508530000001</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
@@ -1546,7 +1653,9 @@
       <c r="E57" s="1">
         <v>12</v>
       </c>
-      <c r="F57" s="4"/>
+      <c r="F57" s="7">
+        <v>2715.2518570000002</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
@@ -1564,7 +1673,9 @@
       <c r="E58" s="1">
         <v>13</v>
       </c>
-      <c r="F58" s="4"/>
+      <c r="F58" s="7">
+        <v>2549.6312699999999</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
@@ -1582,7 +1693,9 @@
       <c r="E59" s="1">
         <v>14</v>
       </c>
-      <c r="F59" s="4"/>
+      <c r="F59" s="7">
+        <v>2363.858381</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
@@ -1600,7 +1713,9 @@
       <c r="E60" s="1">
         <v>15</v>
       </c>
-      <c r="F60" s="4"/>
+      <c r="F60" s="7">
+        <v>2275.2762349999998</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
@@ -1618,7 +1733,9 @@
       <c r="E61" s="1">
         <v>16</v>
       </c>
-      <c r="F61" s="4"/>
+      <c r="F61" s="7">
+        <v>2194.8669279999999</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
@@ -1636,7 +1753,9 @@
       <c r="E62" s="1">
         <v>17</v>
       </c>
-      <c r="F62" s="4"/>
+      <c r="F62" s="7">
+        <v>1983.509804</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
@@ -1654,7 +1773,9 @@
       <c r="E63" s="1">
         <v>18</v>
       </c>
-      <c r="F63" s="4"/>
+      <c r="F63" s="7">
+        <v>1785.80124</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
@@ -1672,7 +1793,9 @@
       <c r="E64" s="1">
         <v>19</v>
       </c>
-      <c r="F64" s="4"/>
+      <c r="F64" s="7">
+        <v>1736.3482509999999</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
@@ -1690,7 +1813,9 @@
       <c r="E65" s="1">
         <v>20</v>
       </c>
-      <c r="F65" s="4"/>
+      <c r="F65" s="7">
+        <v>1658.0089809999999</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
@@ -1708,7 +1833,9 @@
       <c r="E66" s="1">
         <v>21</v>
       </c>
-      <c r="F66" s="4"/>
+      <c r="F66" s="7">
+        <v>1542.24953</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
@@ -1726,7 +1853,9 @@
       <c r="E67" s="1">
         <v>22</v>
       </c>
-      <c r="F67" s="4"/>
+      <c r="F67" s="7">
+        <v>1326.0225049999999</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
@@ -1744,7 +1873,9 @@
       <c r="E68" s="1">
         <v>23</v>
       </c>
-      <c r="F68" s="4"/>
+      <c r="F68" s="7">
+        <v>1186.785993</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
@@ -1762,7 +1893,9 @@
       <c r="E69" s="1">
         <v>24</v>
       </c>
-      <c r="F69" s="4"/>
+      <c r="F69" s="7">
+        <v>1110.4485010000001</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
@@ -1780,7 +1913,9 @@
       <c r="E70" s="1">
         <v>1</v>
       </c>
-      <c r="F70" s="4"/>
+      <c r="F70" s="7">
+        <v>1059.849882</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
@@ -1798,7 +1933,9 @@
       <c r="E71" s="1">
         <v>2</v>
       </c>
-      <c r="F71" s="4"/>
+      <c r="F71" s="7">
+        <v>935.61173589999999</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
@@ -1816,7 +1953,9 @@
       <c r="E72" s="1">
         <v>3</v>
       </c>
-      <c r="F72" s="4"/>
+      <c r="F72" s="7">
+        <v>859.94829900000002</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
@@ -1834,7 +1973,9 @@
       <c r="E73" s="1">
         <v>4</v>
       </c>
-      <c r="F73" s="4"/>
+      <c r="F73" s="7">
+        <v>856.92647480000005</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
@@ -1852,7 +1993,9 @@
       <c r="E74" s="1">
         <v>5</v>
       </c>
-      <c r="F74" s="4"/>
+      <c r="F74" s="7">
+        <v>650.72408129999997</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
@@ -1870,7 +2013,9 @@
       <c r="E75" s="1">
         <v>6</v>
       </c>
-      <c r="F75" s="4"/>
+      <c r="F75" s="7">
+        <v>621.99589330000003</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
@@ -1888,7 +2033,9 @@
       <c r="E76" s="1">
         <v>7</v>
       </c>
-      <c r="F76" s="4"/>
+      <c r="F76" s="7">
+        <v>638.37181929999997</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
@@ -1906,7 +2053,9 @@
       <c r="E77" s="1">
         <v>8</v>
       </c>
-      <c r="F77" s="4"/>
+      <c r="F77" s="7">
+        <v>592.69547599999999</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
@@ -1924,7 +2073,9 @@
       <c r="E78" s="1">
         <v>9</v>
       </c>
-      <c r="F78" s="4"/>
+      <c r="F78" s="7">
+        <v>570.73194850000004</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
@@ -1942,7 +2093,9 @@
       <c r="E79" s="1">
         <v>10</v>
       </c>
-      <c r="F79" s="4"/>
+      <c r="F79" s="7">
+        <v>565.41735459999995</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
@@ -1960,7 +2113,9 @@
       <c r="E80" s="1">
         <v>11</v>
       </c>
-      <c r="F80" s="4"/>
+      <c r="F80" s="7">
+        <v>606.97131690000003</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
@@ -1978,7 +2133,9 @@
       <c r="E81" s="1">
         <v>12</v>
       </c>
-      <c r="F81" s="4"/>
+      <c r="F81" s="7">
+        <v>572.84940670000003</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="3">
@@ -1996,7 +2153,9 @@
       <c r="E82" s="1">
         <v>13</v>
       </c>
-      <c r="F82" s="4"/>
+      <c r="F82" s="7">
+        <v>567.60679349999998</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="3">
@@ -2014,7 +2173,9 @@
       <c r="E83" s="1">
         <v>14</v>
       </c>
-      <c r="F83" s="4"/>
+      <c r="F83" s="7">
+        <v>546.81079160000002</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="3">
@@ -2032,7 +2193,9 @@
       <c r="E84" s="1">
         <v>15</v>
       </c>
-      <c r="F84" s="4"/>
+      <c r="F84" s="7">
+        <v>519.41602139999998</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
@@ -2050,7 +2213,9 @@
       <c r="E85" s="1">
         <v>16</v>
       </c>
-      <c r="F85" s="4"/>
+      <c r="F85" s="7">
+        <v>527.73939940000002</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
@@ -2068,7 +2233,9 @@
       <c r="E86" s="1">
         <v>17</v>
       </c>
-      <c r="F86" s="4"/>
+      <c r="F86" s="7">
+        <v>537.14138779999996</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
@@ -2086,7 +2253,9 @@
       <c r="E87" s="1">
         <v>18</v>
       </c>
-      <c r="F87" s="4"/>
+      <c r="F87" s="7">
+        <v>532.41498039999999</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="3">
@@ -2104,7 +2273,9 @@
       <c r="E88" s="1">
         <v>19</v>
       </c>
-      <c r="F88" s="4"/>
+      <c r="F88" s="7">
+        <v>554.84038250000003</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
@@ -2122,7 +2293,9 @@
       <c r="E89" s="1">
         <v>20</v>
       </c>
-      <c r="F89" s="4"/>
+      <c r="F89" s="7">
+        <v>544.46144839999999</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="3">
@@ -2140,7 +2313,9 @@
       <c r="E90" s="1">
         <v>21</v>
       </c>
-      <c r="F90" s="4"/>
+      <c r="F90" s="7">
+        <v>545.11378590000004</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="3">
@@ -2158,7 +2333,9 @@
       <c r="E91" s="1">
         <v>22</v>
       </c>
-      <c r="F91" s="4"/>
+      <c r="F91" s="7">
+        <v>550.9589095</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="3">
@@ -2176,7 +2353,9 @@
       <c r="E92" s="1">
         <v>23</v>
       </c>
-      <c r="F92" s="4"/>
+      <c r="F92" s="7">
+        <v>643.17191809999997</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="3">
@@ -2194,7 +2373,9 @@
       <c r="E93" s="1">
         <v>24</v>
       </c>
-      <c r="F93" s="4"/>
+      <c r="F93" s="7">
+        <v>828.08976680000001</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="3">
@@ -2212,7 +2393,9 @@
       <c r="E94" s="1">
         <v>1</v>
       </c>
-      <c r="F94" s="4"/>
+      <c r="F94" s="7">
+        <v>976.6260747</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="3">
@@ -2230,7 +2413,9 @@
       <c r="E95" s="1">
         <v>2</v>
       </c>
-      <c r="F95" s="4"/>
+      <c r="F95" s="7">
+        <v>1083.322187</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="3">
@@ -2248,7 +2433,9 @@
       <c r="E96" s="1">
         <v>3</v>
       </c>
-      <c r="F96" s="4"/>
+      <c r="F96" s="7">
+        <v>1283.270814</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="3">
@@ -2266,7 +2453,9 @@
       <c r="E97" s="1">
         <v>4</v>
       </c>
-      <c r="F97" s="4"/>
+      <c r="F97" s="7">
+        <v>1476.0363219999999</v>
+      </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="3">
@@ -2284,7 +2473,9 @@
       <c r="E98" s="1">
         <v>5</v>
       </c>
-      <c r="F98" s="4"/>
+      <c r="F98" s="7">
+        <v>1548.5056139999999</v>
+      </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="3">
@@ -2302,7 +2493,9 @@
       <c r="E99" s="1">
         <v>6</v>
       </c>
-      <c r="F99" s="4"/>
+      <c r="F99" s="7">
+        <v>1624.1931850000001</v>
+      </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="3">
@@ -2320,7 +2513,9 @@
       <c r="E100" s="1">
         <v>7</v>
       </c>
-      <c r="F100" s="4"/>
+      <c r="F100" s="7">
+        <v>1683.8036010000001</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="3">
@@ -2338,7 +2533,9 @@
       <c r="E101" s="1">
         <v>8</v>
       </c>
-      <c r="F101" s="4"/>
+      <c r="F101" s="7">
+        <v>1687.7709219999999</v>
+      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="3">
@@ -2356,7 +2553,9 @@
       <c r="E102" s="1">
         <v>9</v>
       </c>
-      <c r="F102" s="4"/>
+      <c r="F102" s="7">
+        <v>1641.136229</v>
+      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="3">
@@ -2374,7 +2573,9 @@
       <c r="E103" s="1">
         <v>10</v>
       </c>
-      <c r="F103" s="4"/>
+      <c r="F103" s="7">
+        <v>1631.596096</v>
+      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="3">
@@ -2392,7 +2593,9 @@
       <c r="E104" s="1">
         <v>11</v>
       </c>
-      <c r="F104" s="4"/>
+      <c r="F104" s="7">
+        <v>1613.6812299999999</v>
+      </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="3">
@@ -2410,7 +2613,9 @@
       <c r="E105" s="1">
         <v>12</v>
       </c>
-      <c r="F105" s="4"/>
+      <c r="F105" s="7">
+        <v>1592.147412</v>
+      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="3">
@@ -2428,7 +2633,9 @@
       <c r="E106" s="1">
         <v>13</v>
       </c>
-      <c r="F106" s="4"/>
+      <c r="F106" s="7">
+        <v>1588.412008</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="3">
@@ -2446,7 +2653,9 @@
       <c r="E107" s="1">
         <v>14</v>
       </c>
-      <c r="F107" s="4"/>
+      <c r="F107" s="7">
+        <v>1606.123883</v>
+      </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="3">
@@ -2464,7 +2673,9 @@
       <c r="E108" s="1">
         <v>15</v>
       </c>
-      <c r="F108" s="4"/>
+      <c r="F108" s="7">
+        <v>1619.5115860000001</v>
+      </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="3">
@@ -2482,7 +2693,9 @@
       <c r="E109" s="1">
         <v>16</v>
       </c>
-      <c r="F109" s="4"/>
+      <c r="F109" s="7">
+        <v>1618.257441</v>
+      </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="3">
@@ -2500,7 +2713,9 @@
       <c r="E110" s="1">
         <v>17</v>
       </c>
-      <c r="F110" s="4"/>
+      <c r="F110" s="7">
+        <v>1589.121631</v>
+      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="3">
@@ -2518,7 +2733,9 @@
       <c r="E111" s="1">
         <v>18</v>
       </c>
-      <c r="F111" s="4"/>
+      <c r="F111" s="7">
+        <v>1569.38177</v>
+      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="3">
@@ -2536,7 +2753,9 @@
       <c r="E112" s="1">
         <v>19</v>
       </c>
-      <c r="F112" s="4"/>
+      <c r="F112" s="7">
+        <v>1515.6676729999999</v>
+      </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="3">
@@ -2554,7 +2773,9 @@
       <c r="E113" s="1">
         <v>20</v>
       </c>
-      <c r="F113" s="4"/>
+      <c r="F113" s="7">
+        <v>1442.6872800000001</v>
+      </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="3">
@@ -2572,7 +2793,9 @@
       <c r="E114" s="1">
         <v>21</v>
       </c>
-      <c r="F114" s="4"/>
+      <c r="F114" s="7">
+        <v>1403.3020690000001</v>
+      </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="3">
@@ -2590,7 +2813,9 @@
       <c r="E115" s="1">
         <v>22</v>
       </c>
-      <c r="F115" s="4"/>
+      <c r="F115" s="7">
+        <v>1373.0209609999999</v>
+      </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="3">
@@ -2608,7 +2833,9 @@
       <c r="E116" s="1">
         <v>23</v>
       </c>
-      <c r="F116" s="4"/>
+      <c r="F116" s="7">
+        <v>1384.9057089999999</v>
+      </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="3">
@@ -2626,7 +2853,9 @@
       <c r="E117" s="1">
         <v>24</v>
       </c>
-      <c r="F117" s="4"/>
+      <c r="F117" s="7">
+        <v>1297.005623</v>
+      </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" s="3">
@@ -2644,7 +2873,9 @@
       <c r="E118" s="1">
         <v>1</v>
       </c>
-      <c r="F118" s="4"/>
+      <c r="F118" s="7">
+        <v>1291.3384840000001</v>
+      </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" s="3">
@@ -2662,7 +2893,9 @@
       <c r="E119" s="1">
         <v>2</v>
       </c>
-      <c r="F119" s="4"/>
+      <c r="F119" s="7">
+        <v>1219.7040420000001</v>
+      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" s="3">
@@ -2680,7 +2913,9 @@
       <c r="E120" s="1">
         <v>3</v>
       </c>
-      <c r="F120" s="4"/>
+      <c r="F120" s="7">
+        <v>1176.2137560000001</v>
+      </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" s="3">
@@ -2698,7 +2933,9 @@
       <c r="E121" s="1">
         <v>4</v>
       </c>
-      <c r="F121" s="4"/>
+      <c r="F121" s="7">
+        <v>1172.757069</v>
+      </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" s="3">
@@ -2716,7 +2953,9 @@
       <c r="E122" s="1">
         <v>5</v>
       </c>
-      <c r="F122" s="4"/>
+      <c r="F122" s="7">
+        <v>1172.3765000000001</v>
+      </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" s="3">
@@ -2734,7 +2973,9 @@
       <c r="E123" s="1">
         <v>6</v>
       </c>
-      <c r="F123" s="4"/>
+      <c r="F123" s="7">
+        <v>1094.509581</v>
+      </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" s="3">
@@ -2752,7 +2993,9 @@
       <c r="E124" s="1">
         <v>7</v>
       </c>
-      <c r="F124" s="4"/>
+      <c r="F124" s="7">
+        <v>1081.117346</v>
+      </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" s="3">
@@ -2770,7 +3013,9 @@
       <c r="E125" s="1">
         <v>8</v>
       </c>
-      <c r="F125" s="4"/>
+      <c r="F125" s="7">
+        <v>1065.547509</v>
+      </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="3">
@@ -2788,7 +3033,9 @@
       <c r="E126" s="1">
         <v>9</v>
       </c>
-      <c r="F126" s="4"/>
+      <c r="F126" s="7">
+        <v>1060.4266230000001</v>
+      </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" s="3">
@@ -2806,7 +3053,9 @@
       <c r="E127" s="1">
         <v>10</v>
       </c>
-      <c r="F127" s="4"/>
+      <c r="F127" s="7">
+        <v>1061.226189</v>
+      </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" s="3">
@@ -2824,7 +3073,9 @@
       <c r="E128" s="1">
         <v>11</v>
       </c>
-      <c r="F128" s="4"/>
+      <c r="F128" s="7">
+        <v>1067.8813560000001</v>
+      </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="3">
@@ -2842,7 +3093,9 @@
       <c r="E129" s="1">
         <v>12</v>
       </c>
-      <c r="F129" s="4"/>
+      <c r="F129" s="7">
+        <v>982.72716879999996</v>
+      </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" s="3">
@@ -2860,7 +3113,9 @@
       <c r="E130" s="1">
         <v>13</v>
       </c>
-      <c r="F130" s="4"/>
+      <c r="F130" s="7">
+        <v>962.77043579999997</v>
+      </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="3">
@@ -2878,7 +3133,9 @@
       <c r="E131" s="1">
         <v>14</v>
       </c>
-      <c r="F131" s="4"/>
+      <c r="F131" s="7">
+        <v>963.33335320000003</v>
+      </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" s="3">
@@ -2896,7 +3153,9 @@
       <c r="E132" s="1">
         <v>15</v>
       </c>
-      <c r="F132" s="4"/>
+      <c r="F132" s="7">
+        <v>930.37152639999999</v>
+      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" s="3">
@@ -2914,7 +3173,9 @@
       <c r="E133" s="1">
         <v>16</v>
       </c>
-      <c r="F133" s="4"/>
+      <c r="F133" s="7">
+        <v>917.40281689999995</v>
+      </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="3">
@@ -2932,7 +3193,9 @@
       <c r="E134" s="1">
         <v>17</v>
       </c>
-      <c r="F134" s="4"/>
+      <c r="F134" s="7">
+        <v>859.35263899999995</v>
+      </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" s="3">
@@ -2950,7 +3213,9 @@
       <c r="E135" s="1">
         <v>18</v>
       </c>
-      <c r="F135" s="4"/>
+      <c r="F135" s="7">
+        <v>782.79077670000004</v>
+      </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" s="3">
@@ -2968,7 +3233,9 @@
       <c r="E136" s="1">
         <v>19</v>
       </c>
-      <c r="F136" s="4"/>
+      <c r="F136" s="7">
+        <v>769.85757450000006</v>
+      </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" s="3">
@@ -2986,7 +3253,9 @@
       <c r="E137" s="1">
         <v>20</v>
       </c>
-      <c r="F137" s="4"/>
+      <c r="F137" s="7">
+        <v>739.34304380000003</v>
+      </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" s="3">
@@ -3004,7 +3273,9 @@
       <c r="E138" s="1">
         <v>21</v>
       </c>
-      <c r="F138" s="4"/>
+      <c r="F138" s="7">
+        <v>740.54229310000005</v>
+      </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" s="3">
@@ -3022,7 +3293,9 @@
       <c r="E139" s="1">
         <v>22</v>
       </c>
-      <c r="F139" s="4"/>
+      <c r="F139" s="7">
+        <v>714.32548080000004</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" s="3">
@@ -3040,7 +3313,9 @@
       <c r="E140" s="1">
         <v>23</v>
       </c>
-      <c r="F140" s="4"/>
+      <c r="F140" s="7">
+        <v>684.38674040000001</v>
+      </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="3">
@@ -3058,7 +3333,9 @@
       <c r="E141" s="1">
         <v>24</v>
       </c>
-      <c r="F141" s="4"/>
+      <c r="F141" s="7">
+        <v>646.43286869999997</v>
+      </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" s="3">
@@ -3076,7 +3353,9 @@
       <c r="E142" s="1">
         <v>1</v>
       </c>
-      <c r="F142" s="4"/>
+      <c r="F142" s="7">
+        <v>581.1868978</v>
+      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" s="3">
@@ -3094,7 +3373,9 @@
       <c r="E143" s="1">
         <v>2</v>
       </c>
-      <c r="F143" s="4"/>
+      <c r="F143" s="7">
+        <v>577.08985110000003</v>
+      </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" s="3">
@@ -3112,7 +3393,9 @@
       <c r="E144" s="1">
         <v>3</v>
       </c>
-      <c r="F144" s="4"/>
+      <c r="F144" s="7">
+        <v>560.05608219999999</v>
+      </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" s="3">
@@ -3130,7 +3413,9 @@
       <c r="E145" s="1">
         <v>4</v>
       </c>
-      <c r="F145" s="4"/>
+      <c r="F145" s="7">
+        <v>550.53117499999996</v>
+      </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" s="3">
@@ -3148,7 +3433,9 @@
       <c r="E146" s="1">
         <v>5</v>
       </c>
-      <c r="F146" s="4"/>
+      <c r="F146" s="7">
+        <v>548.69737850000001</v>
+      </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" s="3">
@@ -3166,7 +3453,9 @@
       <c r="E147" s="1">
         <v>6</v>
       </c>
-      <c r="F147" s="4"/>
+      <c r="F147" s="7">
+        <v>563.10556059999999</v>
+      </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" s="3">
@@ -3184,7 +3473,9 @@
       <c r="E148" s="1">
         <v>7</v>
       </c>
-      <c r="F148" s="4"/>
+      <c r="F148" s="7">
+        <v>533.72426910000001</v>
+      </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" s="3">
@@ -3202,7 +3493,9 @@
       <c r="E149" s="1">
         <v>8</v>
       </c>
-      <c r="F149" s="4"/>
+      <c r="F149" s="7">
+        <v>514.32464749999997</v>
+      </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" s="3">
@@ -3220,7 +3513,9 @@
       <c r="E150" s="1">
         <v>9</v>
       </c>
-      <c r="F150" s="4"/>
+      <c r="F150" s="7">
+        <v>504.60618390000002</v>
+      </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" s="3">
@@ -3238,7 +3533,9 @@
       <c r="E151" s="1">
         <v>10</v>
       </c>
-      <c r="F151" s="4"/>
+      <c r="F151" s="7">
+        <v>493.29056880000002</v>
+      </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" s="3">
@@ -3256,7 +3553,9 @@
       <c r="E152" s="1">
         <v>11</v>
       </c>
-      <c r="F152" s="4"/>
+      <c r="F152" s="7">
+        <v>496.43330700000001</v>
+      </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" s="3">
@@ -3274,7 +3573,9 @@
       <c r="E153" s="1">
         <v>12</v>
       </c>
-      <c r="F153" s="4"/>
+      <c r="F153" s="7">
+        <v>484.2369731</v>
+      </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" s="3">
@@ -3292,7 +3593,9 @@
       <c r="E154" s="1">
         <v>13</v>
       </c>
-      <c r="F154" s="4"/>
+      <c r="F154" s="7">
+        <v>481.64938219999999</v>
+      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" s="3">
@@ -3310,7 +3613,9 @@
       <c r="E155" s="1">
         <v>14</v>
       </c>
-      <c r="F155" s="4"/>
+      <c r="F155" s="7">
+        <v>476.2867827</v>
+      </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" s="3">
@@ -3328,7 +3633,9 @@
       <c r="E156" s="1">
         <v>15</v>
       </c>
-      <c r="F156" s="4"/>
+      <c r="F156" s="7">
+        <v>475.19573539999999</v>
+      </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157" s="3">
@@ -3346,7 +3653,9 @@
       <c r="E157" s="1">
         <v>16</v>
       </c>
-      <c r="F157" s="4"/>
+      <c r="F157" s="7">
+        <v>455.41949579999999</v>
+      </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158" s="3">
@@ -3364,7 +3673,9 @@
       <c r="E158" s="1">
         <v>17</v>
       </c>
-      <c r="F158" s="4"/>
+      <c r="F158" s="7">
+        <v>414.27765690000001</v>
+      </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159" s="3">
@@ -3382,7 +3693,9 @@
       <c r="E159" s="1">
         <v>18</v>
       </c>
-      <c r="F159" s="4"/>
+      <c r="F159" s="7">
+        <v>414.27765690000001</v>
+      </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160" s="3">
@@ -3400,7 +3713,9 @@
       <c r="E160" s="1">
         <v>19</v>
       </c>
-      <c r="F160" s="4"/>
+      <c r="F160" s="7">
+        <v>410.14460600000001</v>
+      </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" s="3">
@@ -3418,7 +3733,9 @@
       <c r="E161" s="1">
         <v>20</v>
       </c>
-      <c r="F161" s="4"/>
+      <c r="F161" s="7">
+        <v>408.32059859999998</v>
+      </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162" s="3">
@@ -3436,10 +3753,12 @@
       <c r="E162" s="1">
         <v>21</v>
       </c>
-      <c r="F162" s="4"/>
+      <c r="F162" s="7">
+        <v>408.32059859999998</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F162" xr:uid="{D7293B07-B6BD-4126-B903-DD072EEB6695}"/>
+  <autoFilter ref="A1:F162"/>
   <mergeCells count="6">
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A1:A2"/>

--- a/2021 빅콘테스트_데이터분석분야_퓨처스리그_홍수ZERO_평가데이터_210803.xlsx
+++ b/2021 빅콘테스트_데이터분석분야_퓨처스리그_홍수ZERO_평가데이터_210803.xlsx
@@ -58,7 +58,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="185" formatCode="0.0000000"/>
+    <numFmt numFmtId="176" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -185,6 +185,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -192,9 +195,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F161" sqref="F161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -530,32 +530,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
@@ -573,9 +573,7 @@
       <c r="E3" s="1">
         <v>6</v>
       </c>
-      <c r="F3" s="7">
-        <v>151.39989460000001</v>
-      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
@@ -593,9 +591,7 @@
       <c r="E4" s="1">
         <v>7</v>
       </c>
-      <c r="F4" s="7">
-        <v>184.9793627</v>
-      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
@@ -613,9 +609,7 @@
       <c r="E5" s="1">
         <v>8</v>
       </c>
-      <c r="F5" s="7">
-        <v>269.04465750000003</v>
-      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
@@ -633,9 +627,7 @@
       <c r="E6" s="1">
         <v>9</v>
       </c>
-      <c r="F6" s="7">
-        <v>466.77708730000001</v>
-      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
@@ -653,9 +645,7 @@
       <c r="E7" s="1">
         <v>10</v>
       </c>
-      <c r="F7" s="7">
-        <v>553.60340169999995</v>
-      </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
@@ -673,9 +663,7 @@
       <c r="E8" s="1">
         <v>11</v>
       </c>
-      <c r="F8" s="7">
-        <v>711.99392250000005</v>
-      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
@@ -693,9 +681,7 @@
       <c r="E9" s="1">
         <v>12</v>
       </c>
-      <c r="F9" s="7">
-        <v>732.63996650000001</v>
-      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
@@ -713,9 +699,7 @@
       <c r="E10" s="1">
         <v>13</v>
       </c>
-      <c r="F10" s="7">
-        <v>729.04729380000003</v>
-      </c>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
@@ -733,9 +717,7 @@
       <c r="E11" s="1">
         <v>14</v>
       </c>
-      <c r="F11" s="7">
-        <v>719.53820889999997</v>
-      </c>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
@@ -753,9 +735,7 @@
       <c r="E12" s="1">
         <v>15</v>
       </c>
-      <c r="F12" s="7">
-        <v>792.53471339999999</v>
-      </c>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
@@ -773,9 +753,7 @@
       <c r="E13" s="1">
         <v>16</v>
       </c>
-      <c r="F13" s="7">
-        <v>670.30034509999996</v>
-      </c>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
@@ -793,9 +771,7 @@
       <c r="E14" s="1">
         <v>17</v>
       </c>
-      <c r="F14" s="7">
-        <v>632.51800189999994</v>
-      </c>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
@@ -813,9 +789,7 @@
       <c r="E15" s="1">
         <v>18</v>
       </c>
-      <c r="F15" s="7">
-        <v>628.53325989999996</v>
-      </c>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
@@ -833,9 +807,7 @@
       <c r="E16" s="1">
         <v>19</v>
       </c>
-      <c r="F16" s="7">
-        <v>823.6891114</v>
-      </c>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
@@ -853,9 +825,7 @@
       <c r="E17" s="1">
         <v>20</v>
       </c>
-      <c r="F17" s="7">
-        <v>973.26843099999996</v>
-      </c>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
@@ -873,9 +843,7 @@
       <c r="E18" s="1">
         <v>21</v>
       </c>
-      <c r="F18" s="7">
-        <v>1064.385057</v>
-      </c>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
@@ -893,9 +861,7 @@
       <c r="E19" s="1">
         <v>22</v>
       </c>
-      <c r="F19" s="7">
-        <v>1113.883384</v>
-      </c>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
@@ -913,9 +879,7 @@
       <c r="E20" s="1">
         <v>23</v>
       </c>
-      <c r="F20" s="7">
-        <v>1197.8561179999999</v>
-      </c>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
@@ -933,9 +897,7 @@
       <c r="E21" s="1">
         <v>24</v>
       </c>
-      <c r="F21" s="7">
-        <v>1492.6818020000001</v>
-      </c>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
@@ -953,9 +915,7 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="7">
-        <v>1598.9011800000001</v>
-      </c>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
@@ -973,9 +933,7 @@
       <c r="E23" s="1">
         <v>2</v>
       </c>
-      <c r="F23" s="7">
-        <v>1654.19697</v>
-      </c>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
@@ -993,9 +951,7 @@
       <c r="E24" s="1">
         <v>3</v>
       </c>
-      <c r="F24" s="7">
-        <v>2486.4006359999998</v>
-      </c>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
@@ -1013,9 +969,7 @@
       <c r="E25" s="1">
         <v>4</v>
       </c>
-      <c r="F25" s="7">
-        <v>2922.1860150000002</v>
-      </c>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
@@ -1033,9 +987,7 @@
       <c r="E26" s="1">
         <v>5</v>
       </c>
-      <c r="F26" s="7">
-        <v>3205.7986639999999</v>
-      </c>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
@@ -1053,9 +1005,7 @@
       <c r="E27" s="1">
         <v>6</v>
       </c>
-      <c r="F27" s="7">
-        <v>3346.9847679999998</v>
-      </c>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
@@ -1073,9 +1023,7 @@
       <c r="E28" s="1">
         <v>7</v>
       </c>
-      <c r="F28" s="7">
-        <v>3904.6189810000001</v>
-      </c>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
@@ -1093,9 +1041,7 @@
       <c r="E29" s="1">
         <v>8</v>
       </c>
-      <c r="F29" s="7">
-        <v>4580.3488139999999</v>
-      </c>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
@@ -1113,9 +1059,7 @@
       <c r="E30" s="1">
         <v>9</v>
       </c>
-      <c r="F30" s="7">
-        <v>4937.2142320000003</v>
-      </c>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
@@ -1133,9 +1077,7 @@
       <c r="E31" s="1">
         <v>10</v>
       </c>
-      <c r="F31" s="7">
-        <v>5018.8102879999997</v>
-      </c>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
@@ -1153,9 +1095,7 @@
       <c r="E32" s="1">
         <v>11</v>
       </c>
-      <c r="F32" s="7">
-        <v>5142.6607880000001</v>
-      </c>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
@@ -1173,9 +1113,7 @@
       <c r="E33" s="1">
         <v>12</v>
       </c>
-      <c r="F33" s="7">
-        <v>5123.2948130000004</v>
-      </c>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
@@ -1193,9 +1131,7 @@
       <c r="E34" s="1">
         <v>13</v>
       </c>
-      <c r="F34" s="7">
-        <v>5384.419234</v>
-      </c>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
@@ -1213,9 +1149,7 @@
       <c r="E35" s="1">
         <v>14</v>
       </c>
-      <c r="F35" s="7">
-        <v>5811.1447200000002</v>
-      </c>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
@@ -1233,9 +1167,7 @@
       <c r="E36" s="1">
         <v>15</v>
       </c>
-      <c r="F36" s="7">
-        <v>5808.7600730000004</v>
-      </c>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
@@ -1253,9 +1185,7 @@
       <c r="E37" s="1">
         <v>16</v>
       </c>
-      <c r="F37" s="7">
-        <v>5815.5423300000002</v>
-      </c>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
@@ -1273,9 +1203,7 @@
       <c r="E38" s="1">
         <v>17</v>
       </c>
-      <c r="F38" s="7">
-        <v>5701.4708389999996</v>
-      </c>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
@@ -1293,9 +1221,7 @@
       <c r="E39" s="1">
         <v>18</v>
       </c>
-      <c r="F39" s="7">
-        <v>5532.7771089999997</v>
-      </c>
+      <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
@@ -1313,9 +1239,7 @@
       <c r="E40" s="1">
         <v>19</v>
       </c>
-      <c r="F40" s="7">
-        <v>5230.2224059999999</v>
-      </c>
+      <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
@@ -1333,9 +1257,7 @@
       <c r="E41" s="1">
         <v>20</v>
       </c>
-      <c r="F41" s="7">
-        <v>5260.6866900000005</v>
-      </c>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
@@ -1353,9 +1275,7 @@
       <c r="E42" s="1">
         <v>21</v>
       </c>
-      <c r="F42" s="7">
-        <v>5048.8634240000001</v>
-      </c>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
@@ -1373,9 +1293,7 @@
       <c r="E43" s="1">
         <v>22</v>
       </c>
-      <c r="F43" s="7">
-        <v>5012.317524</v>
-      </c>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
@@ -1393,9 +1311,7 @@
       <c r="E44" s="1">
         <v>23</v>
       </c>
-      <c r="F44" s="7">
-        <v>4948.2292820000002</v>
-      </c>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
@@ -1413,9 +1329,7 @@
       <c r="E45" s="1">
         <v>24</v>
       </c>
-      <c r="F45" s="7">
-        <v>4983.4667769999996</v>
-      </c>
+      <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
@@ -1433,9 +1347,7 @@
       <c r="E46" s="1">
         <v>1</v>
       </c>
-      <c r="F46" s="7">
-        <v>4800.7558630000003</v>
-      </c>
+      <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
@@ -1453,9 +1365,7 @@
       <c r="E47" s="1">
         <v>2</v>
       </c>
-      <c r="F47" s="7">
-        <v>4743.3093289999997</v>
-      </c>
+      <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
@@ -1473,9 +1383,7 @@
       <c r="E48" s="1">
         <v>3</v>
       </c>
-      <c r="F48" s="7">
-        <v>4683.751002</v>
-      </c>
+      <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
@@ -1493,9 +1401,7 @@
       <c r="E49" s="1">
         <v>4</v>
       </c>
-      <c r="F49" s="7">
-        <v>4631.9955620000001</v>
-      </c>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
@@ -1513,9 +1419,7 @@
       <c r="E50" s="1">
         <v>5</v>
       </c>
-      <c r="F50" s="7">
-        <v>4566.9308190000002</v>
-      </c>
+      <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
@@ -1533,9 +1437,7 @@
       <c r="E51" s="1">
         <v>6</v>
       </c>
-      <c r="F51" s="7">
-        <v>4414.0677900000001</v>
-      </c>
+      <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
@@ -1553,9 +1455,7 @@
       <c r="E52" s="1">
         <v>7</v>
       </c>
-      <c r="F52" s="7">
-        <v>4349.8335079999997</v>
-      </c>
+      <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
@@ -1573,9 +1473,7 @@
       <c r="E53" s="1">
         <v>8</v>
       </c>
-      <c r="F53" s="7">
-        <v>4283.3002889999998</v>
-      </c>
+      <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
@@ -1593,9 +1491,7 @@
       <c r="E54" s="1">
         <v>9</v>
       </c>
-      <c r="F54" s="7">
-        <v>4171.203861</v>
-      </c>
+      <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
@@ -1613,9 +1509,7 @@
       <c r="E55" s="1">
         <v>10</v>
       </c>
-      <c r="F55" s="7">
-        <v>4311.2872379999999</v>
-      </c>
+      <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
@@ -1633,9 +1527,7 @@
       <c r="E56" s="1">
         <v>11</v>
       </c>
-      <c r="F56" s="7">
-        <v>3811.1508530000001</v>
-      </c>
+      <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
@@ -1653,9 +1545,7 @@
       <c r="E57" s="1">
         <v>12</v>
       </c>
-      <c r="F57" s="7">
-        <v>2715.2518570000002</v>
-      </c>
+      <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
@@ -1673,9 +1563,7 @@
       <c r="E58" s="1">
         <v>13</v>
       </c>
-      <c r="F58" s="7">
-        <v>2549.6312699999999</v>
-      </c>
+      <c r="F58" s="4"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
@@ -1693,9 +1581,7 @@
       <c r="E59" s="1">
         <v>14</v>
       </c>
-      <c r="F59" s="7">
-        <v>2363.858381</v>
-      </c>
+      <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
@@ -1713,9 +1599,7 @@
       <c r="E60" s="1">
         <v>15</v>
       </c>
-      <c r="F60" s="7">
-        <v>2275.2762349999998</v>
-      </c>
+      <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
@@ -1733,9 +1617,7 @@
       <c r="E61" s="1">
         <v>16</v>
       </c>
-      <c r="F61" s="7">
-        <v>2194.8669279999999</v>
-      </c>
+      <c r="F61" s="4"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
@@ -1753,9 +1635,7 @@
       <c r="E62" s="1">
         <v>17</v>
       </c>
-      <c r="F62" s="7">
-        <v>1983.509804</v>
-      </c>
+      <c r="F62" s="4"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
@@ -1773,9 +1653,7 @@
       <c r="E63" s="1">
         <v>18</v>
       </c>
-      <c r="F63" s="7">
-        <v>1785.80124</v>
-      </c>
+      <c r="F63" s="4"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
@@ -1793,9 +1671,7 @@
       <c r="E64" s="1">
         <v>19</v>
       </c>
-      <c r="F64" s="7">
-        <v>1736.3482509999999</v>
-      </c>
+      <c r="F64" s="4"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
@@ -1813,9 +1689,7 @@
       <c r="E65" s="1">
         <v>20</v>
       </c>
-      <c r="F65" s="7">
-        <v>1658.0089809999999</v>
-      </c>
+      <c r="F65" s="4"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
@@ -1833,9 +1707,7 @@
       <c r="E66" s="1">
         <v>21</v>
       </c>
-      <c r="F66" s="7">
-        <v>1542.24953</v>
-      </c>
+      <c r="F66" s="4"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
@@ -1853,9 +1725,7 @@
       <c r="E67" s="1">
         <v>22</v>
       </c>
-      <c r="F67" s="7">
-        <v>1326.0225049999999</v>
-      </c>
+      <c r="F67" s="4"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
@@ -1873,9 +1743,7 @@
       <c r="E68" s="1">
         <v>23</v>
       </c>
-      <c r="F68" s="7">
-        <v>1186.785993</v>
-      </c>
+      <c r="F68" s="4"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
@@ -1893,9 +1761,7 @@
       <c r="E69" s="1">
         <v>24</v>
       </c>
-      <c r="F69" s="7">
-        <v>1110.4485010000001</v>
-      </c>
+      <c r="F69" s="4"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
@@ -1913,9 +1779,7 @@
       <c r="E70" s="1">
         <v>1</v>
       </c>
-      <c r="F70" s="7">
-        <v>1059.849882</v>
-      </c>
+      <c r="F70" s="4"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
@@ -1933,9 +1797,7 @@
       <c r="E71" s="1">
         <v>2</v>
       </c>
-      <c r="F71" s="7">
-        <v>935.61173589999999</v>
-      </c>
+      <c r="F71" s="4"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
@@ -1953,9 +1815,7 @@
       <c r="E72" s="1">
         <v>3</v>
       </c>
-      <c r="F72" s="7">
-        <v>859.94829900000002</v>
-      </c>
+      <c r="F72" s="4"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
@@ -1973,9 +1833,7 @@
       <c r="E73" s="1">
         <v>4</v>
       </c>
-      <c r="F73" s="7">
-        <v>856.92647480000005</v>
-      </c>
+      <c r="F73" s="4"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
@@ -1993,9 +1851,7 @@
       <c r="E74" s="1">
         <v>5</v>
       </c>
-      <c r="F74" s="7">
-        <v>650.72408129999997</v>
-      </c>
+      <c r="F74" s="4"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
@@ -2013,9 +1869,7 @@
       <c r="E75" s="1">
         <v>6</v>
       </c>
-      <c r="F75" s="7">
-        <v>621.99589330000003</v>
-      </c>
+      <c r="F75" s="4"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
@@ -2033,9 +1887,7 @@
       <c r="E76" s="1">
         <v>7</v>
       </c>
-      <c r="F76" s="7">
-        <v>638.37181929999997</v>
-      </c>
+      <c r="F76" s="4"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
@@ -2053,9 +1905,7 @@
       <c r="E77" s="1">
         <v>8</v>
       </c>
-      <c r="F77" s="7">
-        <v>592.69547599999999</v>
-      </c>
+      <c r="F77" s="4"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
@@ -2073,9 +1923,7 @@
       <c r="E78" s="1">
         <v>9</v>
       </c>
-      <c r="F78" s="7">
-        <v>570.73194850000004</v>
-      </c>
+      <c r="F78" s="4"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
@@ -2093,9 +1941,7 @@
       <c r="E79" s="1">
         <v>10</v>
       </c>
-      <c r="F79" s="7">
-        <v>565.41735459999995</v>
-      </c>
+      <c r="F79" s="4"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
@@ -2113,9 +1959,7 @@
       <c r="E80" s="1">
         <v>11</v>
       </c>
-      <c r="F80" s="7">
-        <v>606.97131690000003</v>
-      </c>
+      <c r="F80" s="4"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
@@ -2133,9 +1977,7 @@
       <c r="E81" s="1">
         <v>12</v>
       </c>
-      <c r="F81" s="7">
-        <v>572.84940670000003</v>
-      </c>
+      <c r="F81" s="4"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="3">
@@ -2153,9 +1995,7 @@
       <c r="E82" s="1">
         <v>13</v>
       </c>
-      <c r="F82" s="7">
-        <v>567.60679349999998</v>
-      </c>
+      <c r="F82" s="4"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="3">
@@ -2173,9 +2013,7 @@
       <c r="E83" s="1">
         <v>14</v>
       </c>
-      <c r="F83" s="7">
-        <v>546.81079160000002</v>
-      </c>
+      <c r="F83" s="4"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="3">
@@ -2193,9 +2031,7 @@
       <c r="E84" s="1">
         <v>15</v>
       </c>
-      <c r="F84" s="7">
-        <v>519.41602139999998</v>
-      </c>
+      <c r="F84" s="4"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
@@ -2213,9 +2049,7 @@
       <c r="E85" s="1">
         <v>16</v>
       </c>
-      <c r="F85" s="7">
-        <v>527.73939940000002</v>
-      </c>
+      <c r="F85" s="4"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
@@ -2233,9 +2067,7 @@
       <c r="E86" s="1">
         <v>17</v>
       </c>
-      <c r="F86" s="7">
-        <v>537.14138779999996</v>
-      </c>
+      <c r="F86" s="4"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
@@ -2253,9 +2085,7 @@
       <c r="E87" s="1">
         <v>18</v>
       </c>
-      <c r="F87" s="7">
-        <v>532.41498039999999</v>
-      </c>
+      <c r="F87" s="4"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="3">
@@ -2273,9 +2103,7 @@
       <c r="E88" s="1">
         <v>19</v>
       </c>
-      <c r="F88" s="7">
-        <v>554.84038250000003</v>
-      </c>
+      <c r="F88" s="4"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
@@ -2293,9 +2121,7 @@
       <c r="E89" s="1">
         <v>20</v>
       </c>
-      <c r="F89" s="7">
-        <v>544.46144839999999</v>
-      </c>
+      <c r="F89" s="4"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="3">
@@ -2313,9 +2139,7 @@
       <c r="E90" s="1">
         <v>21</v>
       </c>
-      <c r="F90" s="7">
-        <v>545.11378590000004</v>
-      </c>
+      <c r="F90" s="4"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="3">
@@ -2333,9 +2157,7 @@
       <c r="E91" s="1">
         <v>22</v>
       </c>
-      <c r="F91" s="7">
-        <v>550.9589095</v>
-      </c>
+      <c r="F91" s="4"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="3">
@@ -2353,9 +2175,7 @@
       <c r="E92" s="1">
         <v>23</v>
       </c>
-      <c r="F92" s="7">
-        <v>643.17191809999997</v>
-      </c>
+      <c r="F92" s="4"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="3">
@@ -2373,9 +2193,7 @@
       <c r="E93" s="1">
         <v>24</v>
       </c>
-      <c r="F93" s="7">
-        <v>828.08976680000001</v>
-      </c>
+      <c r="F93" s="4"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="3">
@@ -2393,9 +2211,7 @@
       <c r="E94" s="1">
         <v>1</v>
       </c>
-      <c r="F94" s="7">
-        <v>976.6260747</v>
-      </c>
+      <c r="F94" s="4"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="3">
@@ -2413,9 +2229,7 @@
       <c r="E95" s="1">
         <v>2</v>
       </c>
-      <c r="F95" s="7">
-        <v>1083.322187</v>
-      </c>
+      <c r="F95" s="4"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="3">
@@ -2433,9 +2247,7 @@
       <c r="E96" s="1">
         <v>3</v>
       </c>
-      <c r="F96" s="7">
-        <v>1283.270814</v>
-      </c>
+      <c r="F96" s="4"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="3">
@@ -2453,9 +2265,7 @@
       <c r="E97" s="1">
         <v>4</v>
       </c>
-      <c r="F97" s="7">
-        <v>1476.0363219999999</v>
-      </c>
+      <c r="F97" s="4"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="3">
@@ -2473,9 +2283,7 @@
       <c r="E98" s="1">
         <v>5</v>
       </c>
-      <c r="F98" s="7">
-        <v>1548.5056139999999</v>
-      </c>
+      <c r="F98" s="4"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="3">
@@ -2493,9 +2301,7 @@
       <c r="E99" s="1">
         <v>6</v>
       </c>
-      <c r="F99" s="7">
-        <v>1624.1931850000001</v>
-      </c>
+      <c r="F99" s="4"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="3">
@@ -2513,9 +2319,7 @@
       <c r="E100" s="1">
         <v>7</v>
       </c>
-      <c r="F100" s="7">
-        <v>1683.8036010000001</v>
-      </c>
+      <c r="F100" s="4"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="3">
@@ -2533,9 +2337,7 @@
       <c r="E101" s="1">
         <v>8</v>
       </c>
-      <c r="F101" s="7">
-        <v>1687.7709219999999</v>
-      </c>
+      <c r="F101" s="4"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="3">
@@ -2553,9 +2355,7 @@
       <c r="E102" s="1">
         <v>9</v>
       </c>
-      <c r="F102" s="7">
-        <v>1641.136229</v>
-      </c>
+      <c r="F102" s="4"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="3">
@@ -2573,9 +2373,7 @@
       <c r="E103" s="1">
         <v>10</v>
       </c>
-      <c r="F103" s="7">
-        <v>1631.596096</v>
-      </c>
+      <c r="F103" s="4"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="3">
@@ -2593,9 +2391,7 @@
       <c r="E104" s="1">
         <v>11</v>
       </c>
-      <c r="F104" s="7">
-        <v>1613.6812299999999</v>
-      </c>
+      <c r="F104" s="4"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="3">
@@ -2613,9 +2409,7 @@
       <c r="E105" s="1">
         <v>12</v>
       </c>
-      <c r="F105" s="7">
-        <v>1592.147412</v>
-      </c>
+      <c r="F105" s="4"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="3">
@@ -2633,9 +2427,7 @@
       <c r="E106" s="1">
         <v>13</v>
       </c>
-      <c r="F106" s="7">
-        <v>1588.412008</v>
-      </c>
+      <c r="F106" s="4"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="3">
@@ -2653,9 +2445,7 @@
       <c r="E107" s="1">
         <v>14</v>
       </c>
-      <c r="F107" s="7">
-        <v>1606.123883</v>
-      </c>
+      <c r="F107" s="4"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="3">
@@ -2673,9 +2463,7 @@
       <c r="E108" s="1">
         <v>15</v>
       </c>
-      <c r="F108" s="7">
-        <v>1619.5115860000001</v>
-      </c>
+      <c r="F108" s="4"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="3">
@@ -2693,9 +2481,7 @@
       <c r="E109" s="1">
         <v>16</v>
       </c>
-      <c r="F109" s="7">
-        <v>1618.257441</v>
-      </c>
+      <c r="F109" s="4"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="3">
@@ -2713,9 +2499,7 @@
       <c r="E110" s="1">
         <v>17</v>
       </c>
-      <c r="F110" s="7">
-        <v>1589.121631</v>
-      </c>
+      <c r="F110" s="4"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="3">
@@ -2733,9 +2517,7 @@
       <c r="E111" s="1">
         <v>18</v>
       </c>
-      <c r="F111" s="7">
-        <v>1569.38177</v>
-      </c>
+      <c r="F111" s="4"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="3">
@@ -2753,9 +2535,7 @@
       <c r="E112" s="1">
         <v>19</v>
       </c>
-      <c r="F112" s="7">
-        <v>1515.6676729999999</v>
-      </c>
+      <c r="F112" s="4"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="3">
@@ -2773,9 +2553,7 @@
       <c r="E113" s="1">
         <v>20</v>
       </c>
-      <c r="F113" s="7">
-        <v>1442.6872800000001</v>
-      </c>
+      <c r="F113" s="4"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="3">
@@ -2793,9 +2571,7 @@
       <c r="E114" s="1">
         <v>21</v>
       </c>
-      <c r="F114" s="7">
-        <v>1403.3020690000001</v>
-      </c>
+      <c r="F114" s="4"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="3">
@@ -2813,9 +2589,7 @@
       <c r="E115" s="1">
         <v>22</v>
       </c>
-      <c r="F115" s="7">
-        <v>1373.0209609999999</v>
-      </c>
+      <c r="F115" s="4"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="3">
@@ -2833,9 +2607,7 @@
       <c r="E116" s="1">
         <v>23</v>
       </c>
-      <c r="F116" s="7">
-        <v>1384.9057089999999</v>
-      </c>
+      <c r="F116" s="4"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="3">
@@ -2853,9 +2625,7 @@
       <c r="E117" s="1">
         <v>24</v>
       </c>
-      <c r="F117" s="7">
-        <v>1297.005623</v>
-      </c>
+      <c r="F117" s="4"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" s="3">
@@ -2873,9 +2643,7 @@
       <c r="E118" s="1">
         <v>1</v>
       </c>
-      <c r="F118" s="7">
-        <v>1291.3384840000001</v>
-      </c>
+      <c r="F118" s="4"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" s="3">
@@ -2893,9 +2661,7 @@
       <c r="E119" s="1">
         <v>2</v>
       </c>
-      <c r="F119" s="7">
-        <v>1219.7040420000001</v>
-      </c>
+      <c r="F119" s="4"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" s="3">
@@ -2913,9 +2679,7 @@
       <c r="E120" s="1">
         <v>3</v>
       </c>
-      <c r="F120" s="7">
-        <v>1176.2137560000001</v>
-      </c>
+      <c r="F120" s="4"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" s="3">
@@ -2933,9 +2697,7 @@
       <c r="E121" s="1">
         <v>4</v>
       </c>
-      <c r="F121" s="7">
-        <v>1172.757069</v>
-      </c>
+      <c r="F121" s="4"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" s="3">
@@ -2953,9 +2715,7 @@
       <c r="E122" s="1">
         <v>5</v>
       </c>
-      <c r="F122" s="7">
-        <v>1172.3765000000001</v>
-      </c>
+      <c r="F122" s="4"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" s="3">
@@ -2973,9 +2733,7 @@
       <c r="E123" s="1">
         <v>6</v>
       </c>
-      <c r="F123" s="7">
-        <v>1094.509581</v>
-      </c>
+      <c r="F123" s="4"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" s="3">
@@ -2993,9 +2751,7 @@
       <c r="E124" s="1">
         <v>7</v>
       </c>
-      <c r="F124" s="7">
-        <v>1081.117346</v>
-      </c>
+      <c r="F124" s="4"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" s="3">
@@ -3013,9 +2769,7 @@
       <c r="E125" s="1">
         <v>8</v>
       </c>
-      <c r="F125" s="7">
-        <v>1065.547509</v>
-      </c>
+      <c r="F125" s="4"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="3">
@@ -3033,9 +2787,7 @@
       <c r="E126" s="1">
         <v>9</v>
       </c>
-      <c r="F126" s="7">
-        <v>1060.4266230000001</v>
-      </c>
+      <c r="F126" s="4"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" s="3">
@@ -3053,9 +2805,7 @@
       <c r="E127" s="1">
         <v>10</v>
       </c>
-      <c r="F127" s="7">
-        <v>1061.226189</v>
-      </c>
+      <c r="F127" s="4"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" s="3">
@@ -3073,9 +2823,7 @@
       <c r="E128" s="1">
         <v>11</v>
       </c>
-      <c r="F128" s="7">
-        <v>1067.8813560000001</v>
-      </c>
+      <c r="F128" s="4"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="3">
@@ -3093,9 +2841,7 @@
       <c r="E129" s="1">
         <v>12</v>
       </c>
-      <c r="F129" s="7">
-        <v>982.72716879999996</v>
-      </c>
+      <c r="F129" s="4"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" s="3">
@@ -3113,9 +2859,7 @@
       <c r="E130" s="1">
         <v>13</v>
       </c>
-      <c r="F130" s="7">
-        <v>962.77043579999997</v>
-      </c>
+      <c r="F130" s="4"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="3">
@@ -3133,9 +2877,7 @@
       <c r="E131" s="1">
         <v>14</v>
       </c>
-      <c r="F131" s="7">
-        <v>963.33335320000003</v>
-      </c>
+      <c r="F131" s="4"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" s="3">
@@ -3153,9 +2895,7 @@
       <c r="E132" s="1">
         <v>15</v>
       </c>
-      <c r="F132" s="7">
-        <v>930.37152639999999</v>
-      </c>
+      <c r="F132" s="4"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" s="3">
@@ -3173,9 +2913,7 @@
       <c r="E133" s="1">
         <v>16</v>
       </c>
-      <c r="F133" s="7">
-        <v>917.40281689999995</v>
-      </c>
+      <c r="F133" s="4"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="3">
@@ -3193,9 +2931,7 @@
       <c r="E134" s="1">
         <v>17</v>
       </c>
-      <c r="F134" s="7">
-        <v>859.35263899999995</v>
-      </c>
+      <c r="F134" s="4"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" s="3">
@@ -3213,9 +2949,7 @@
       <c r="E135" s="1">
         <v>18</v>
       </c>
-      <c r="F135" s="7">
-        <v>782.79077670000004</v>
-      </c>
+      <c r="F135" s="4"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" s="3">
@@ -3233,9 +2967,7 @@
       <c r="E136" s="1">
         <v>19</v>
       </c>
-      <c r="F136" s="7">
-        <v>769.85757450000006</v>
-      </c>
+      <c r="F136" s="4"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" s="3">
@@ -3253,9 +2985,7 @@
       <c r="E137" s="1">
         <v>20</v>
       </c>
-      <c r="F137" s="7">
-        <v>739.34304380000003</v>
-      </c>
+      <c r="F137" s="4"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" s="3">
@@ -3273,9 +3003,7 @@
       <c r="E138" s="1">
         <v>21</v>
       </c>
-      <c r="F138" s="7">
-        <v>740.54229310000005</v>
-      </c>
+      <c r="F138" s="4"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" s="3">
@@ -3293,9 +3021,7 @@
       <c r="E139" s="1">
         <v>22</v>
       </c>
-      <c r="F139" s="7">
-        <v>714.32548080000004</v>
-      </c>
+      <c r="F139" s="4"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" s="3">
@@ -3313,9 +3039,7 @@
       <c r="E140" s="1">
         <v>23</v>
       </c>
-      <c r="F140" s="7">
-        <v>684.38674040000001</v>
-      </c>
+      <c r="F140" s="4"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="3">
@@ -3333,9 +3057,7 @@
       <c r="E141" s="1">
         <v>24</v>
       </c>
-      <c r="F141" s="7">
-        <v>646.43286869999997</v>
-      </c>
+      <c r="F141" s="4"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" s="3">
@@ -3353,9 +3075,7 @@
       <c r="E142" s="1">
         <v>1</v>
       </c>
-      <c r="F142" s="7">
-        <v>581.1868978</v>
-      </c>
+      <c r="F142" s="4"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" s="3">
@@ -3373,9 +3093,7 @@
       <c r="E143" s="1">
         <v>2</v>
       </c>
-      <c r="F143" s="7">
-        <v>577.08985110000003</v>
-      </c>
+      <c r="F143" s="4"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" s="3">
@@ -3393,9 +3111,7 @@
       <c r="E144" s="1">
         <v>3</v>
       </c>
-      <c r="F144" s="7">
-        <v>560.05608219999999</v>
-      </c>
+      <c r="F144" s="4"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" s="3">
@@ -3413,9 +3129,7 @@
       <c r="E145" s="1">
         <v>4</v>
       </c>
-      <c r="F145" s="7">
-        <v>550.53117499999996</v>
-      </c>
+      <c r="F145" s="4"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" s="3">
@@ -3433,9 +3147,7 @@
       <c r="E146" s="1">
         <v>5</v>
       </c>
-      <c r="F146" s="7">
-        <v>548.69737850000001</v>
-      </c>
+      <c r="F146" s="4"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" s="3">
@@ -3453,9 +3165,7 @@
       <c r="E147" s="1">
         <v>6</v>
       </c>
-      <c r="F147" s="7">
-        <v>563.10556059999999</v>
-      </c>
+      <c r="F147" s="4"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" s="3">
@@ -3473,9 +3183,7 @@
       <c r="E148" s="1">
         <v>7</v>
       </c>
-      <c r="F148" s="7">
-        <v>533.72426910000001</v>
-      </c>
+      <c r="F148" s="4"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" s="3">
@@ -3493,9 +3201,7 @@
       <c r="E149" s="1">
         <v>8</v>
       </c>
-      <c r="F149" s="7">
-        <v>514.32464749999997</v>
-      </c>
+      <c r="F149" s="4"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" s="3">
@@ -3513,9 +3219,7 @@
       <c r="E150" s="1">
         <v>9</v>
       </c>
-      <c r="F150" s="7">
-        <v>504.60618390000002</v>
-      </c>
+      <c r="F150" s="4"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" s="3">
@@ -3533,9 +3237,7 @@
       <c r="E151" s="1">
         <v>10</v>
       </c>
-      <c r="F151" s="7">
-        <v>493.29056880000002</v>
-      </c>
+      <c r="F151" s="4"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" s="3">
@@ -3553,9 +3255,7 @@
       <c r="E152" s="1">
         <v>11</v>
       </c>
-      <c r="F152" s="7">
-        <v>496.43330700000001</v>
-      </c>
+      <c r="F152" s="4"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" s="3">
@@ -3573,9 +3273,7 @@
       <c r="E153" s="1">
         <v>12</v>
       </c>
-      <c r="F153" s="7">
-        <v>484.2369731</v>
-      </c>
+      <c r="F153" s="4"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" s="3">
@@ -3593,9 +3291,7 @@
       <c r="E154" s="1">
         <v>13</v>
       </c>
-      <c r="F154" s="7">
-        <v>481.64938219999999</v>
-      </c>
+      <c r="F154" s="4"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" s="3">
@@ -3613,9 +3309,7 @@
       <c r="E155" s="1">
         <v>14</v>
       </c>
-      <c r="F155" s="7">
-        <v>476.2867827</v>
-      </c>
+      <c r="F155" s="4"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" s="3">
@@ -3633,9 +3327,7 @@
       <c r="E156" s="1">
         <v>15</v>
       </c>
-      <c r="F156" s="7">
-        <v>475.19573539999999</v>
-      </c>
+      <c r="F156" s="4"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157" s="3">
@@ -3653,9 +3345,7 @@
       <c r="E157" s="1">
         <v>16</v>
       </c>
-      <c r="F157" s="7">
-        <v>455.41949579999999</v>
-      </c>
+      <c r="F157" s="4"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158" s="3">
@@ -3673,9 +3363,7 @@
       <c r="E158" s="1">
         <v>17</v>
       </c>
-      <c r="F158" s="7">
-        <v>414.27765690000001</v>
-      </c>
+      <c r="F158" s="4"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159" s="3">
@@ -3693,9 +3381,7 @@
       <c r="E159" s="1">
         <v>18</v>
       </c>
-      <c r="F159" s="7">
-        <v>414.27765690000001</v>
-      </c>
+      <c r="F159" s="4"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160" s="3">
@@ -3713,9 +3399,7 @@
       <c r="E160" s="1">
         <v>19</v>
       </c>
-      <c r="F160" s="7">
-        <v>410.14460600000001</v>
-      </c>
+      <c r="F160" s="4"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" s="3">
@@ -3733,9 +3417,7 @@
       <c r="E161" s="1">
         <v>20</v>
       </c>
-      <c r="F161" s="7">
-        <v>408.32059859999998</v>
-      </c>
+      <c r="F161" s="4"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162" s="3">
@@ -3753,9 +3435,7 @@
       <c r="E162" s="1">
         <v>21</v>
       </c>
-      <c r="F162" s="7">
-        <v>408.32059859999998</v>
-      </c>
+      <c r="F162" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F162"/>
